--- a/graphs/loop_error_graphs.xlsx
+++ b/graphs/loop_error_graphs.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="27440" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1240" yWindow="0" windowWidth="27440" windowHeight="17560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="harmonicEuler" sheetId="1" r:id="rId1"/>
     <sheet name="HarmonicEulerX" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="harmonicRKChart" sheetId="6" r:id="rId4"/>
-    <sheet name="harmonicRK2" sheetId="5" r:id="rId5"/>
+    <sheet name="computedEuler" sheetId="4" r:id="rId3"/>
+    <sheet name="harmonicRK2" sheetId="5" r:id="rId4"/>
+    <sheet name="harmonicRKChart" sheetId="6" r:id="rId5"/>
+    <sheet name="computedRK2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
   <si>
     <t>x</t>
   </si>
@@ -779,6 +780,264 @@
   </si>
   <si>
     <t>rel. error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.4832749999886612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5921250000113389]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.8054148374910931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9205980625089070]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.108966220582156</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.227819061067845]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.379183209943961</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.514400126672064]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.614495416353433</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.769024518632951]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.809010742596372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.986242155859416]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.957702062975392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.161545511773914]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.056511675649411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.291485958978360]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.102688824442795</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.373510153975241]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.094003266025644</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.406869456991862]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.029681629500647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.391752788172031]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.914236565173473</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.325471315130286]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.754495634562397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.205387692423719]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.533711575515046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.054709180265578]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.265612563369610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.868288249252572]</t>
+  </si>
+  <si>
+    <t>RK2 harmonic oscillator, with compacting threshold 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 0.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 2.671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 8.388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 14.339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 23.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 35.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 52.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 75.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 88.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 104.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 117.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 163.862</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 278.173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 369.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 484.413</t>
+  </si>
+  <si>
+    <t>RK2 harmonic oscillator, with compacting threshold 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 0.606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.351666978359098]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 102.621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.318667369759777]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 137.939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.232027403749599]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 188.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.107797529575350]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 201.343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.934793126494287]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 244.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.717009725331986]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 318.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 2.606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 8.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.506678472065649]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 18.223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.759398968704553]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 20.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.971454030826948]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 28.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.137932969735049]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 46.539</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.254978725545547]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 74.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.330270068253502]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in 77.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.386904864550377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.624120966281830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.823798867628840</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.981314605014258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.093018909082224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.145928910164534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.149205744658408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.102767047912900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.007680476554160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.852085797410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.653627629286336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.416891087290196</t>
   </si>
 </sst>
 </file>
@@ -830,8 +1089,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -860,7 +1135,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -869,6 +1144,14 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -877,6 +1160,14 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6531,7 +6822,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$18</c:f>
+              <c:f>computedEuler!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10438,6 +10729,324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>200</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>computedRK2!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>computedRK2!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0865809100615E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.63252787924547E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.82822702583531E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.19373457150574E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69268645507917E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.28351689181365E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.97108236139482E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.76159404715603E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.65773960181135E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.67500380717131E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.84685674388981E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.04828621151189E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.09979185619903E-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.07773973912903E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.27249506066951E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>500</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>computedRK2!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>computedRK2!$D$24:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0865809100615E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.63252787924547E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.82822702583531E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15539618891667E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6169581403886E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.09958914538437E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.58319704635152E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.04651863651015E-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.74204140166015E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.36957000007986E-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.92344779944742E-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.39565931106726E-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.38058613341179E-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.24951370850919E-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9800528730361E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2136617896"/>
+        <c:axId val="-2140194264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2136617896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140194264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2140194264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136617896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -10453,7 +11062,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="150" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10546,6 +11155,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20736,4 +21380,550 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="D5:D19 A5:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0865809100615E-16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.6325278792454697E-16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.8282270258353098E-16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.19373457150574E-15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.69268645507917E-15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2835168918136498E-15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.9710823613948202E-15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.7615940471560299E-15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.65773960181135E-15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.6750038071713099E-15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.84685674388981E-15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.0482862115118901E-15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.0997918561990299E-15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.07773973912903E-14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.27249506066951E-14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0865809100615E-16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.6325278792454697E-16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.8282270258353098E-16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.15539618891667E-15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.6169581403886001E-15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0995891453843701E-15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.5831970463515199E-15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0465186365101499E-15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.74204140166015E-15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.3695700000798601E-15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.9234477994474199E-15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.3956593110672601E-15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.38058613341179E-15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.24951370850919E-15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.9800528730360995E-15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>